--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="464">
   <si>
     <t xml:space="preserve">Topic:</t>
   </si>
@@ -31,16 +31,19 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t xml:space="preserve">DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
@@ -1656,11 +1659,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C473" activeCellId="0" sqref="C473"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1708,7 +1711,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,10 +1719,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,10 +1730,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,10 +1741,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,10 +1752,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,10 +1763,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,10 +1785,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,10 +1796,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,10 +1807,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,10 +1818,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,10 +1840,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,10 +1851,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,10 +1862,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,10 +1873,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,10 +1895,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,10 +1906,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,10 +1917,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,10 +1928,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,10 +1939,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,10 +1950,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,10 +1961,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,10 +1972,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,10 +1983,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,10 +1994,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,10 +2016,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,10 +2027,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,10 +2038,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,10 +2049,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,10 +2060,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,10 +2071,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,133 +2082,133 @@
         <v>4</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,475 +2218,475 @@
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,398 +2696,398 @@
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,398 +3096,398 @@
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,387 +3496,387 @@
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,244 +3891,244 @@
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,387 +4141,387 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,211 +4534,211 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,420 +4751,420 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5174,200 +5177,200 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,486 +5383,486 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,68 +5875,68 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,662 +5949,662 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,10 +6618,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>3</v>
@@ -6626,101 +6629,101 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="464">
   <si>
     <t xml:space="preserve">Topic:</t>
   </si>
@@ -31,22 +31,22 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
     <t xml:space="preserve">DONE</t>
   </si>
   <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
     <t xml:space="preserve">Find the maximum and minimum element in an array</t>
   </si>
   <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
     <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
@@ -1659,11 +1659,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C473" activeCellId="0" sqref="C473"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A364" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C184" activeCellId="0" sqref="C184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1688,417 +1688,415 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,7 +2107,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,7 +2118,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,7 +2129,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,7 +2140,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,7 +2151,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2162,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,7 +2173,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,7 +2184,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,7 +2195,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,7 +2206,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,7 +2222,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2235,7 +2233,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,7 +2244,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,7 +2255,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2266,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2277,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,7 +2288,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,7 +2299,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,7 +2310,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,7 +2321,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,7 +2332,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,7 +2343,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,7 +2354,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,7 +2365,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,7 +2376,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,7 +2387,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,7 +2398,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,7 +2409,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,7 +2420,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,7 +2431,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,7 +2442,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,7 +2453,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2464,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,7 +2475,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,7 +2486,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,7 +2497,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,7 +2508,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,7 +2519,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +2530,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,7 +2541,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,7 +2552,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2563,7 @@
         <v>85</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,7 +2574,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,7 +2585,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,7 +2596,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,7 +2607,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,7 +2618,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,7 +2629,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,7 +2640,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,7 +2651,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,7 +2662,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,7 +2673,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,7 +2684,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,7 +2700,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,7 +2711,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,7 +2722,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,7 +2733,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,7 +2744,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2755,7 @@
         <v>103</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,7 +2766,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,7 +2777,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,7 +2788,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,7 +2799,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,7 +2810,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,7 +2821,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,7 +2832,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,7 +2843,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,7 +2854,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,7 +2865,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,7 +2876,7 @@
         <v>114</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,7 +2887,7 @@
         <v>115</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,7 +2898,7 @@
         <v>116</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,7 +2909,7 @@
         <v>117</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,7 +2920,7 @@
         <v>118</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,7 +2931,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,7 +2942,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,7 +2953,7 @@
         <v>121</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,7 +2964,7 @@
         <v>122</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,7 +2975,7 @@
         <v>123</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,7 +2986,7 @@
         <v>124</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,7 +2997,7 @@
         <v>125</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,7 +3008,7 @@
         <v>126</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,7 +3019,7 @@
         <v>127</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,7 +3030,7 @@
         <v>128</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,7 +3041,7 @@
         <v>129</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,7 +3052,7 @@
         <v>130</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,7 +3063,7 @@
         <v>131</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,7 +3074,7 @@
         <v>132</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,7 +3085,7 @@
         <v>133</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,7 +3100,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,7 +3111,7 @@
         <v>136</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,7 +3122,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,7 +3133,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,7 +3144,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +3155,7 @@
         <v>140</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3166,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,7 +3177,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,7 +3188,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +3199,7 @@
         <v>144</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,7 +3210,7 @@
         <v>145</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,7 +3221,7 @@
         <v>146</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,7 +3232,7 @@
         <v>147</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,7 +3243,7 @@
         <v>148</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,7 +3254,7 @@
         <v>149</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,7 +3265,7 @@
         <v>150</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,7 +3276,7 @@
         <v>151</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,7 +3287,7 @@
         <v>152</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,7 +3298,7 @@
         <v>153</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,7 +3309,7 @@
         <v>154</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,7 +3320,7 @@
         <v>155</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,7 +3331,7 @@
         <v>156</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,7 +3342,7 @@
         <v>157</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,7 +3353,7 @@
         <v>158</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3364,7 @@
         <v>159</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,7 +3375,7 @@
         <v>160</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,7 +3386,7 @@
         <v>161</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,7 +3397,7 @@
         <v>162</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,7 +3408,7 @@
         <v>163</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,7 +3419,7 @@
         <v>164</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,7 +3430,7 @@
         <v>165</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,7 +3441,7 @@
         <v>166</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,7 +3452,7 @@
         <v>167</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,7 +3463,7 @@
         <v>168</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,7 +3474,7 @@
         <v>169</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,7 +3485,7 @@
         <v>170</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,7 +3500,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,7 +3511,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,7 +3522,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,7 +3533,7 @@
         <v>175</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,7 +3544,7 @@
         <v>176</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,7 +3555,7 @@
         <v>177</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,7 +3566,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,7 +3577,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,7 +3588,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,7 +3599,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,7 +3610,7 @@
         <v>182</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,7 +3621,7 @@
         <v>183</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,7 +3632,7 @@
         <v>184</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,7 +3643,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,7 +3654,7 @@
         <v>186</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,7 +3665,7 @@
         <v>187</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,7 +3676,7 @@
         <v>188</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,7 +3687,7 @@
         <v>189</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,7 +3698,7 @@
         <v>190</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,7 +3709,7 @@
         <v>191</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,7 +3720,7 @@
         <v>192</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,7 +3731,7 @@
         <v>193</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,7 +3742,7 @@
         <v>194</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,7 +3753,7 @@
         <v>195</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,7 +3764,7 @@
         <v>196</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,7 +3775,7 @@
         <v>197</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,7 +3786,7 @@
         <v>198</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,7 +3797,7 @@
         <v>199</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,7 +3808,7 @@
         <v>200</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,7 +3819,7 @@
         <v>201</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,7 +3830,7 @@
         <v>202</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,7 +3841,7 @@
         <v>203</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,7 +3852,7 @@
         <v>204</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,7 +3863,7 @@
         <v>205</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3876,7 +3874,7 @@
         <v>206</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,7 +3895,7 @@
         <v>208</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,7 +3906,7 @@
         <v>209</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,7 +3917,7 @@
         <v>210</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,7 +3928,7 @@
         <v>211</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,7 +3939,7 @@
         <v>212</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,7 +3950,7 @@
         <v>213</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,7 +3961,7 @@
         <v>214</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,7 +3972,7 @@
         <v>215</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,7 +3983,7 @@
         <v>216</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,7 +3994,7 @@
         <v>217</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,7 +4005,7 @@
         <v>218</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4018,7 +4016,7 @@
         <v>219</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,7 +4027,7 @@
         <v>220</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,7 +4038,7 @@
         <v>221</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,7 +4049,7 @@
         <v>222</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,7 +4060,7 @@
         <v>223</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,7 +4071,7 @@
         <v>224</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,7 +4082,7 @@
         <v>225</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,7 +4093,7 @@
         <v>226</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4106,7 +4104,7 @@
         <v>227</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,7 +4115,7 @@
         <v>228</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,7 +4126,7 @@
         <v>229</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,7 +4145,7 @@
         <v>231</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,7 +4156,7 @@
         <v>232</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,7 +4167,7 @@
         <v>233</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4180,7 +4178,7 @@
         <v>234</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,7 +4189,7 @@
         <v>235</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4200,7 @@
         <v>236</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,7 +4211,7 @@
         <v>237</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,7 +4222,7 @@
         <v>238</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,7 +4233,7 @@
         <v>239</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,7 +4244,7 @@
         <v>240</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,7 +4255,7 @@
         <v>241</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,7 +4266,7 @@
         <v>242</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4279,7 +4277,7 @@
         <v>243</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4290,7 +4288,7 @@
         <v>244</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,7 +4299,7 @@
         <v>245</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,7 +4310,7 @@
         <v>246</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4323,7 +4321,7 @@
         <v>247</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,7 +4332,7 @@
         <v>248</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,7 +4343,7 @@
         <v>249</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,7 +4354,7 @@
         <v>250</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,7 +4365,7 @@
         <v>251</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4378,7 +4376,7 @@
         <v>252</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,7 +4387,7 @@
         <v>253</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,7 +4398,7 @@
         <v>254</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,7 +4409,7 @@
         <v>255</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,7 +4420,7 @@
         <v>256</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,7 +4431,7 @@
         <v>257</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,7 +4442,7 @@
         <v>258</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,7 +4453,7 @@
         <v>259</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,7 +4464,7 @@
         <v>260</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4477,7 +4475,7 @@
         <v>261</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4488,7 +4486,7 @@
         <v>262</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,7 +4497,7 @@
         <v>263</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,7 +4508,7 @@
         <v>87</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4521,7 +4519,7 @@
         <v>264</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,7 +4538,7 @@
         <v>266</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,7 +4549,7 @@
         <v>267</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,7 +4560,7 @@
         <v>268</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,7 +4571,7 @@
         <v>269</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4582,7 @@
         <v>270</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,7 +4593,7 @@
         <v>271</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,7 +4604,7 @@
         <v>272</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4615,7 @@
         <v>273</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4626,7 @@
         <v>274</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +4637,7 @@
         <v>275</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,7 +4648,7 @@
         <v>276</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,7 +4659,7 @@
         <v>277</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4670,7 @@
         <v>278</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,7 +4681,7 @@
         <v>279</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4692,7 @@
         <v>280</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,7 +4703,7 @@
         <v>281</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +4714,7 @@
         <v>282</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,7 +4725,7 @@
         <v>283</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,7 +4736,7 @@
         <v>284</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,7 +4755,7 @@
         <v>286</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,7 +4766,7 @@
         <v>287</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,7 +4777,7 @@
         <v>288</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,7 +4788,7 @@
         <v>289</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,7 +4799,7 @@
         <v>290</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,7 +4810,7 @@
         <v>291</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,7 +4821,7 @@
         <v>292</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,7 +4832,7 @@
         <v>293</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,7 +4843,7 @@
         <v>294</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +4854,7 @@
         <v>295</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,7 +4865,7 @@
         <v>296</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,7 +4876,7 @@
         <v>297</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,7 +4887,7 @@
         <v>298</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,7 +4898,7 @@
         <v>299</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,7 +4909,7 @@
         <v>300</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,7 +4920,7 @@
         <v>301</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,7 +4931,7 @@
         <v>302</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,7 +4942,7 @@
         <v>303</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,7 +4953,7 @@
         <v>304</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,7 +4964,7 @@
         <v>305</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,7 +4975,7 @@
         <v>306</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4988,7 +4986,7 @@
         <v>307</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,7 +4997,7 @@
         <v>308</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,7 +5008,7 @@
         <v>309</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,7 +5019,7 @@
         <v>310</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +5030,7 @@
         <v>311</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,7 +5041,7 @@
         <v>312</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,7 +5052,7 @@
         <v>313</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5065,7 +5063,7 @@
         <v>314</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,7 +5074,7 @@
         <v>315</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,7 +5085,7 @@
         <v>316</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,7 +5096,7 @@
         <v>317</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,7 +5107,7 @@
         <v>318</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5118,7 @@
         <v>319</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,7 +5129,7 @@
         <v>320</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,7 +5140,7 @@
         <v>321</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,7 +5151,7 @@
         <v>322</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5164,7 +5162,7 @@
         <v>323</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,7 +5181,7 @@
         <v>325</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,7 +5192,7 @@
         <v>326</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,7 +5203,7 @@
         <v>327</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +5214,7 @@
         <v>328</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,7 +5225,7 @@
         <v>329</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,7 +5236,7 @@
         <v>330</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5249,7 +5247,7 @@
         <v>331</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,7 +5258,7 @@
         <v>332</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,7 +5269,7 @@
         <v>333</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5282,7 +5280,7 @@
         <v>334</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,7 +5291,7 @@
         <v>335</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,7 +5302,7 @@
         <v>336</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,7 +5313,7 @@
         <v>337</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5326,7 +5324,7 @@
         <v>338</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5337,7 +5335,7 @@
         <v>339</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5348,7 +5346,7 @@
         <v>340</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,7 +5357,7 @@
         <v>341</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5370,7 +5368,7 @@
         <v>342</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,7 +5387,7 @@
         <v>344</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5398,7 @@
         <v>345</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,7 +5409,7 @@
         <v>346</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,7 +5420,7 @@
         <v>347</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,7 +5431,7 @@
         <v>348</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5444,7 +5442,7 @@
         <v>349</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,7 +5453,7 @@
         <v>350</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,7 +5464,7 @@
         <v>351</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,7 +5475,7 @@
         <v>352</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5486,7 @@
         <v>353</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,7 +5497,7 @@
         <v>354</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,7 +5508,7 @@
         <v>355</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,7 +5519,7 @@
         <v>356</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5532,7 +5530,7 @@
         <v>357</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,7 +5541,7 @@
         <v>358</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5554,7 +5552,7 @@
         <v>359</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,7 +5563,7 @@
         <v>360</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,7 +5574,7 @@
         <v>361</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +5585,7 @@
         <v>362</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,7 +5596,7 @@
         <v>363</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,7 +5607,7 @@
         <v>364</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5620,7 +5618,7 @@
         <v>365</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,7 +5629,7 @@
         <v>366</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5640,7 @@
         <v>367</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,7 +5651,7 @@
         <v>368</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +5662,7 @@
         <v>369</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,7 +5673,7 @@
         <v>370</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,7 +5684,7 @@
         <v>371</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,7 +5695,7 @@
         <v>372</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,7 +5706,7 @@
         <v>373</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,7 +5717,7 @@
         <v>374</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5730,7 +5728,7 @@
         <v>375</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,7 +5739,7 @@
         <v>376</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,7 +5750,7 @@
         <v>377</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,7 +5761,7 @@
         <v>377</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5774,7 +5772,7 @@
         <v>378</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,7 +5783,7 @@
         <v>379</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,7 +5794,7 @@
         <v>380</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,7 +5805,7 @@
         <v>381</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5818,7 +5816,7 @@
         <v>382</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,7 +5827,7 @@
         <v>383</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +5838,7 @@
         <v>384</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,7 +5849,7 @@
         <v>385</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,7 +5860,7 @@
         <v>386</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,7 +5879,7 @@
         <v>388</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,7 +5890,7 @@
         <v>389</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,7 +5901,7 @@
         <v>390</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,7 +5912,7 @@
         <v>89</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,7 +5923,7 @@
         <v>391</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +5934,7 @@
         <v>392</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,7 +5953,7 @@
         <v>394</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5966,7 +5964,7 @@
         <v>395</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5977,7 +5975,7 @@
         <v>396</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,7 +5986,7 @@
         <v>397</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,7 +5997,7 @@
         <v>398</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6010,7 +6008,7 @@
         <v>399</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6021,7 +6019,7 @@
         <v>400</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,7 +6030,7 @@
         <v>273</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,7 +6041,7 @@
         <v>401</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6054,7 +6052,7 @@
         <v>402</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,7 +6063,7 @@
         <v>403</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,7 +6074,7 @@
         <v>404</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6087,7 +6085,7 @@
         <v>405</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6098,7 +6096,7 @@
         <v>406</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6109,7 +6107,7 @@
         <v>407</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6120,7 +6118,7 @@
         <v>408</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,7 +6129,7 @@
         <v>409</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,7 +6140,7 @@
         <v>410</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6153,7 +6151,7 @@
         <v>411</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,7 +6162,7 @@
         <v>412</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,7 +6173,7 @@
         <v>413</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,7 +6184,7 @@
         <v>414</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6197,7 +6195,7 @@
         <v>415</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6208,7 +6206,7 @@
         <v>416</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6219,7 +6217,7 @@
         <v>417</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6230,7 +6228,7 @@
         <v>418</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6241,7 +6239,7 @@
         <v>419</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6252,7 +6250,7 @@
         <v>420</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6263,7 +6261,7 @@
         <v>421</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6274,7 +6272,7 @@
         <v>422</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6285,7 +6283,7 @@
         <v>423</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6296,7 +6294,7 @@
         <v>424</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6307,7 +6305,7 @@
         <v>425</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,7 +6316,7 @@
         <v>426</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6329,7 +6327,7 @@
         <v>427</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,7 +6338,7 @@
         <v>428</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,7 +6349,7 @@
         <v>429</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6362,7 +6360,7 @@
         <v>430</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,7 +6371,7 @@
         <v>431</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6384,7 +6382,7 @@
         <v>432</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,7 +6393,7 @@
         <v>433</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6406,7 +6404,7 @@
         <v>434</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,7 +6415,7 @@
         <v>435</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6428,7 +6426,7 @@
         <v>436</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6439,7 +6437,7 @@
         <v>437</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6450,7 +6448,7 @@
         <v>438</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,7 +6459,7 @@
         <v>439</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6472,7 +6470,7 @@
         <v>440</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6483,7 +6481,7 @@
         <v>441</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6494,7 +6492,7 @@
         <v>442</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,7 +6503,7 @@
         <v>443</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6516,7 +6514,7 @@
         <v>444</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,7 +6525,7 @@
         <v>445</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6538,7 +6536,7 @@
         <v>446</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,7 +6547,7 @@
         <v>447</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6560,7 +6558,7 @@
         <v>448</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,7 +6569,7 @@
         <v>449</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6582,7 +6580,7 @@
         <v>450</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6593,7 +6591,7 @@
         <v>451</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6604,7 +6602,7 @@
         <v>452</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6624,7 +6622,7 @@
         <v>454</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,7 +6633,7 @@
         <v>455</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6646,7 +6644,7 @@
         <v>456</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6657,7 +6655,7 @@
         <v>457</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6668,7 +6666,7 @@
         <v>458</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,7 +6677,7 @@
         <v>459</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6690,7 +6688,7 @@
         <v>460</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,7 +6699,7 @@
         <v>461</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6712,7 +6710,7 @@
         <v>462</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,7 +6721,7 @@
         <v>463</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1659,11 +1659,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A364" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C184" activeCellId="0" sqref="C184"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A370" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B407" activeCellId="0" sqref="B407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3100,7 +3100,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
